--- a/agriculture 45.xlsx
+++ b/agriculture 45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\ODL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AF5BCF-4CA9-4E61-8175-662C85DA025A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70494184-CD70-4D5C-8003-8D2C4F4A117D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A83A9931-A27A-410F-A675-146D219365E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2384284B-419D-4986-ABD5-700D06559EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3169D128-9FD5-42BD-8E51-4ED877D2774F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DA3C9F-03DF-4331-9A6E-22D982325EF5}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/agriculture 45.xlsx
+++ b/agriculture 45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\ODL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D115B64D-CBFF-4B96-9878-B55CA4311D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E62864-6BA9-4F3F-BD24-52A6702F9D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{269D7804-3E26-4EA5-9092-7F657734D970}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8733B7AB-D2A0-493C-8C2F-C5CA1A530AE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -148,32 +148,31 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]0;\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,53 +193,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -248,20 +210,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -577,39 +539,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DBBD9F-7395-4A33-9594-219F728E9CD9}">
-  <dimension ref="A1:O998"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A5A52F-1B5C-4D2A-9989-A7D504B02D57}">
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="26" width="8" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -656,7 +614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -703,7 +661,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -750,7 +708,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -797,7 +755,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -844,7 +802,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -891,7 +849,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -938,7 +896,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -985,7 +943,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +990,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1079,7 +1037,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1126,7 +1084,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1173,7 +1131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1178,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +1225,7 @@
         <v>66.135000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +1272,7 @@
         <v>74.938999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1361,7 +1319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1366,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1455,7 +1413,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +1460,7 @@
         <v>56.265000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1549,7 +1507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1596,7 +1554,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -1643,7 +1601,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1690,989 +1648,16 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/agriculture 45.xlsx
+++ b/agriculture 45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\ODL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E62864-6BA9-4F3F-BD24-52A6702F9D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E908E752-1FD0-4D25-8286-19D1CF9C4FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8733B7AB-D2A0-493C-8C2F-C5CA1A530AE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B56CED4A-E2E3-4AEF-B51C-E34F5F3FBA56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -146,33 +146,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]0;\(0\)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]0;[$-409]&quot;(&quot;0&quot;)&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,16 +191,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,16 +537,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A5A52F-1B5C-4D2A-9989-A7D504B02D57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4710B5-5E9D-41CF-B8C8-E1843F9C306C}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="257" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
@@ -567,7 +568,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="46.35" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -614,7 +615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="14.7" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -661,7 +662,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="14.7" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -708,7 +709,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="14.7" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -755,7 +756,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="14.7" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -802,7 +803,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="14.7" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -849,7 +850,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="14.7" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -896,7 +897,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="14.7" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -943,7 +944,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="14.7" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -990,7 +991,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="14.7" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="14.7" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="14.7" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="14.7" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="14.7" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>66.135000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="14.7" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>74.938999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="14.7" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="14.7" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="14.7" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="14.7" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>56.265000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="14.7" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="14.7" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="14.7" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="14.7" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1649,12 +1650,11 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="1.1811023622047245" bottom="1.1811023622047245" header="0.78740157480314954" footer="0.78740157480314954"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/agriculture 45.xlsx
+++ b/agriculture 45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\ODL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{369B1CA4-E976-40BF-9074-BC6AE3DA0F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0CEC53-A7C6-473B-92F3-EDC5CF3BE3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73BFD944-DC60-479E-B21E-EC04CFB5D48C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve"> 2019-20</t>
   </si>
@@ -145,10 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]0;[$-409]&quot;(&quot;0&quot;)&quot;"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,13 +162,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -215,29 +205,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -554,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FCF9AD-CCBD-4DFA-8399-F023A8C550DA}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -568,115 +548,107 @@
     <col min="4" max="4" width="8.19921875" customWidth="1"/>
     <col min="5" max="5" width="7.796875" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="8" width="7.19921875" customWidth="1"/>
+    <col min="7" max="7" width="7.19921875" customWidth="1"/>
+    <col min="8" max="8" width="9.09765625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="7.296875" customWidth="1"/>
-    <col min="11" max="11" width="7.3984375" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="11" max="11" width="9.69921875" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
     <col min="13" max="13" width="7.19921875" customWidth="1"/>
     <col min="14" max="14" width="7.5" customWidth="1"/>
-    <col min="15" max="15" width="7.796875" customWidth="1"/>
+    <col min="15" max="15" width="10.69921875" customWidth="1"/>
     <col min="16" max="16" width="8.19921875" customWidth="1"/>
     <col min="17" max="17" width="7.5" customWidth="1"/>
     <col min="18" max="18" width="8.69921875" customWidth="1"/>
     <col min="19" max="1024" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" ht="14.4">
+      <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" ht="24">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="24">
+      <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>232</v>
       </c>
       <c r="C3" s="1">
         <v>1331</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>997</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>224</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>392</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>6486</v>
       </c>
       <c r="H3" s="1">
@@ -689,10 +661,10 @@
         <v>3329</v>
       </c>
       <c r="K3" s="1">
+        <v>670</v>
+      </c>
+      <c r="L3" s="1">
         <v>271</v>
-      </c>
-      <c r="L3" s="1">
-        <v>670</v>
       </c>
       <c r="M3" s="1">
         <v>22717</v>
@@ -703,36 +675,27 @@
       <c r="O3" s="1">
         <v>182</v>
       </c>
-      <c r="P3" s="1">
-        <v>22717</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1121</v>
-      </c>
-      <c r="R3" s="1">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>254</v>
       </c>
       <c r="C4" s="1">
-        <v>1213</v>
-      </c>
-      <c r="D4" s="2">
+        <v>1231</v>
+      </c>
+      <c r="D4" s="1">
         <v>1295</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>333</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>458</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>7369</v>
       </c>
       <c r="H4" s="1">
@@ -745,10 +708,10 @@
         <v>3433</v>
       </c>
       <c r="K4" s="1">
+        <v>749</v>
+      </c>
+      <c r="L4" s="1">
         <v>509</v>
-      </c>
-      <c r="L4" s="1">
-        <v>749</v>
       </c>
       <c r="M4" s="1">
         <v>21965</v>
@@ -759,36 +722,27 @@
       <c r="O4" s="1">
         <v>495</v>
       </c>
-      <c r="P4" s="1">
-        <v>21965</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1395</v>
-      </c>
-      <c r="R4" s="1">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>312</v>
       </c>
       <c r="C5" s="1">
         <v>1303</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>1480</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>353</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>574</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>7723</v>
       </c>
       <c r="H5" s="1">
@@ -801,10 +755,10 @@
         <v>5699</v>
       </c>
       <c r="K5" s="1">
+        <v>1098</v>
+      </c>
+      <c r="L5" s="1">
         <v>394</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1098</v>
       </c>
       <c r="M5" s="1">
         <v>20984</v>
@@ -815,36 +769,27 @@
       <c r="O5" s="1">
         <v>444</v>
       </c>
-      <c r="P5" s="1">
-        <v>20984</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>859</v>
-      </c>
-      <c r="R5" s="1">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>441</v>
       </c>
       <c r="C6" s="1">
         <v>1762</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>1351</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>308</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>746</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>6026</v>
       </c>
       <c r="H6" s="1">
@@ -857,10 +802,10 @@
         <v>6478</v>
       </c>
       <c r="K6" s="1">
+        <v>1028</v>
+      </c>
+      <c r="L6" s="1">
         <v>426</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1028</v>
       </c>
       <c r="M6" s="1">
         <v>18084</v>
@@ -871,36 +816,27 @@
       <c r="O6" s="1">
         <v>591</v>
       </c>
-      <c r="P6" s="1">
-        <v>18084</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1188</v>
-      </c>
-      <c r="R6" s="1">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>282</v>
       </c>
       <c r="C7" s="1">
         <v>1648</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>1536</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>220</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>619</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>4791</v>
       </c>
       <c r="H7" s="1">
@@ -913,10 +849,10 @@
         <v>4196</v>
       </c>
       <c r="K7" s="1">
+        <v>598</v>
+      </c>
+      <c r="L7" s="1">
         <v>424</v>
-      </c>
-      <c r="L7" s="1">
-        <v>598</v>
       </c>
       <c r="M7" s="1">
         <v>15164</v>
@@ -927,36 +863,27 @@
       <c r="O7" s="1">
         <v>545</v>
       </c>
-      <c r="P7" s="1">
-        <v>15164</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>942</v>
-      </c>
-      <c r="R7" s="1">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>284</v>
       </c>
       <c r="C8" s="1">
         <v>1224</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1150</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>198</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>524</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>3635</v>
       </c>
       <c r="H8" s="1">
@@ -969,10 +896,10 @@
         <v>1932</v>
       </c>
       <c r="K8" s="1">
+        <v>410</v>
+      </c>
+      <c r="L8" s="1">
         <v>365</v>
-      </c>
-      <c r="L8" s="1">
-        <v>410</v>
       </c>
       <c r="M8" s="1">
         <v>21257</v>
@@ -983,36 +910,27 @@
       <c r="O8" s="1">
         <v>423</v>
       </c>
-      <c r="P8" s="1">
-        <v>21257</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>518</v>
-      </c>
-      <c r="R8" s="1">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>306</v>
       </c>
       <c r="C9" s="1">
         <v>1418</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>1358</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>182</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>595</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>3181</v>
       </c>
       <c r="H9" s="1">
@@ -1025,10 +943,10 @@
         <v>3316</v>
       </c>
       <c r="K9" s="1">
+        <v>362</v>
+      </c>
+      <c r="L9" s="1">
         <v>282</v>
-      </c>
-      <c r="L9" s="1">
-        <v>362</v>
       </c>
       <c r="M9" s="1">
         <v>32376</v>
@@ -1039,36 +957,27 @@
       <c r="O9" s="1">
         <v>340</v>
       </c>
-      <c r="P9" s="1">
-        <v>32376</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>529</v>
-      </c>
-      <c r="R9" s="1">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>298</v>
       </c>
       <c r="C10" s="1">
         <v>1999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>1908</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>73</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>772</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>3103</v>
       </c>
       <c r="H10" s="1">
@@ -1081,10 +990,10 @@
         <v>6350</v>
       </c>
       <c r="K10" s="1">
+        <v>504</v>
+      </c>
+      <c r="L10" s="1">
         <v>336</v>
-      </c>
-      <c r="L10" s="1">
-        <v>504</v>
       </c>
       <c r="M10" s="1">
         <v>38823</v>
@@ -1095,36 +1004,27 @@
       <c r="O10" s="1">
         <v>195</v>
       </c>
-      <c r="P10" s="1">
-        <v>38823</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>279</v>
-      </c>
-      <c r="R10" s="1">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>247</v>
       </c>
       <c r="C11" s="1">
         <v>1525</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>1797</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>163</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>645</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>2753</v>
       </c>
       <c r="H11" s="1">
@@ -1137,10 +1037,10 @@
         <v>8651</v>
       </c>
       <c r="K11" s="1">
+        <v>536</v>
+      </c>
+      <c r="L11" s="1">
         <v>288</v>
-      </c>
-      <c r="L11" s="1">
-        <v>536</v>
       </c>
       <c r="M11" s="1">
         <v>23385</v>
@@ -1151,36 +1051,27 @@
       <c r="O11" s="1">
         <v>266</v>
       </c>
-      <c r="P11" s="1">
-        <v>23385</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>697</v>
-      </c>
-      <c r="R11" s="1">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>248</v>
       </c>
       <c r="C12" s="1">
         <v>1125</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>1777</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>172</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>463</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>2968</v>
       </c>
       <c r="H12" s="1">
@@ -1193,10 +1084,10 @@
         <v>5744</v>
       </c>
       <c r="K12" s="1">
+        <v>310</v>
+      </c>
+      <c r="L12" s="1">
         <v>149</v>
-      </c>
-      <c r="L12" s="1">
-        <v>310</v>
       </c>
       <c r="M12" s="1">
         <v>17054</v>
@@ -1207,36 +1098,27 @@
       <c r="O12" s="1">
         <v>235</v>
       </c>
-      <c r="P12" s="1">
-        <v>17054</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>393</v>
-      </c>
-      <c r="R12" s="1">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>291</v>
       </c>
       <c r="C13" s="1">
         <v>892</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>463</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>203</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>528</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>2359</v>
       </c>
       <c r="H13" s="1">
@@ -1249,10 +1131,10 @@
         <v>4492</v>
       </c>
       <c r="K13" s="1">
+        <v>255</v>
+      </c>
+      <c r="L13" s="1">
         <v>161</v>
-      </c>
-      <c r="L13" s="1">
-        <v>255</v>
       </c>
       <c r="M13" s="1">
         <v>19713</v>
@@ -1263,36 +1145,27 @@
       <c r="O13" s="1">
         <v>60</v>
       </c>
-      <c r="P13" s="1">
-        <v>19713</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>532</v>
-      </c>
-      <c r="R13" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>152</v>
       </c>
       <c r="C14" s="1">
         <v>898</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>860</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>168</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>268</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>2316</v>
       </c>
       <c r="H14" s="1">
@@ -1305,10 +1178,10 @@
         <v>3779</v>
       </c>
       <c r="K14" s="1">
+        <v>401</v>
+      </c>
+      <c r="L14" s="1">
         <v>141</v>
-      </c>
-      <c r="L14" s="1">
-        <v>401</v>
       </c>
       <c r="M14" s="1">
         <v>18439</v>
@@ -1319,148 +1192,121 @@
       <c r="O14" s="1">
         <v>77</v>
       </c>
-      <c r="P14" s="1">
-        <v>18439</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>352</v>
-      </c>
-      <c r="R14" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>180.245</v>
       </c>
       <c r="C15" s="1">
-        <v>877.90499999999997</v>
-      </c>
-      <c r="D15" s="2">
+        <v>878</v>
+      </c>
+      <c r="D15" s="1">
         <v>985</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>264</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>294</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>2693</v>
       </c>
       <c r="H15" s="1">
         <v>638</v>
       </c>
       <c r="I15" s="1">
-        <v>136.41800000000001</v>
+        <v>136</v>
       </c>
       <c r="J15" s="1">
-        <v>6880.5190000000002</v>
+        <v>6881</v>
       </c>
       <c r="K15" s="1">
-        <v>124.694</v>
+        <v>256</v>
       </c>
       <c r="L15" s="1">
-        <v>255.56200000000001</v>
+        <v>125</v>
       </c>
       <c r="M15" s="1">
-        <v>19413.994999999999</v>
+        <v>19414</v>
       </c>
       <c r="N15" s="1">
-        <v>387.10700000000003</v>
+        <v>387</v>
       </c>
       <c r="O15" s="1">
-        <v>66.135000000000005</v>
-      </c>
-      <c r="P15" s="1">
-        <v>19413.994999999999</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>387.10700000000003</v>
-      </c>
-      <c r="R15" s="1">
-        <v>66.135000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>177.971</v>
       </c>
       <c r="C16" s="1">
-        <v>884.98</v>
-      </c>
-      <c r="D16" s="2">
+        <v>885</v>
+      </c>
+      <c r="D16" s="1">
         <v>1009</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>298</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>286</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>3315</v>
       </c>
       <c r="H16" s="1">
         <v>680</v>
       </c>
       <c r="I16" s="1">
-        <v>124.34099999999999</v>
+        <v>124</v>
       </c>
       <c r="J16" s="1">
-        <v>9543.9709999999995</v>
+        <v>9544</v>
       </c>
       <c r="K16" s="1">
-        <v>96.822000000000003</v>
+        <v>246</v>
       </c>
       <c r="L16" s="1">
-        <v>245.548</v>
+        <v>97</v>
       </c>
       <c r="M16" s="1">
-        <v>20028.32</v>
+        <v>20028</v>
       </c>
       <c r="N16" s="1">
-        <v>360.18599999999998</v>
+        <v>360</v>
       </c>
       <c r="O16" s="1">
-        <v>74.938999999999993</v>
-      </c>
-      <c r="P16" s="1">
-        <v>20028.32</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>360.18599999999998</v>
-      </c>
-      <c r="R16" s="1">
-        <v>74.938999999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>154</v>
       </c>
       <c r="C17" s="1">
         <v>819</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>814</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>261</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>311</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>3445</v>
       </c>
       <c r="H17" s="1">
@@ -1473,10 +1319,10 @@
         <v>3310</v>
       </c>
       <c r="K17" s="1">
+        <v>181</v>
+      </c>
+      <c r="L17" s="1">
         <v>77</v>
-      </c>
-      <c r="L17" s="1">
-        <v>181</v>
       </c>
       <c r="M17" s="1">
         <v>11846</v>
@@ -1487,36 +1333,27 @@
       <c r="O17" s="1">
         <v>56</v>
       </c>
-      <c r="P17" s="1">
-        <v>11846</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>289</v>
-      </c>
-      <c r="R17" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>138</v>
       </c>
       <c r="C18" s="1">
         <v>716</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>834</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>292</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>285</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>3302</v>
       </c>
       <c r="H18" s="1">
@@ -1529,10 +1366,10 @@
         <v>4080</v>
       </c>
       <c r="K18" s="1">
+        <v>154</v>
+      </c>
+      <c r="L18" s="1">
         <v>61</v>
-      </c>
-      <c r="L18" s="1">
-        <v>154</v>
       </c>
       <c r="M18" s="1">
         <v>11006</v>
@@ -1543,36 +1380,27 @@
       <c r="O18" s="1">
         <v>63</v>
       </c>
-      <c r="P18" s="1">
-        <v>11006</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>182</v>
-      </c>
-      <c r="R18" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>203</v>
       </c>
       <c r="C19" s="1">
         <v>828</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>1044</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>261</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>511</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>3066</v>
       </c>
       <c r="H19" s="1">
@@ -1585,10 +1413,10 @@
         <v>5154</v>
       </c>
       <c r="K19" s="1">
+        <v>153</v>
+      </c>
+      <c r="L19" s="1">
         <v>98</v>
-      </c>
-      <c r="L19" s="1">
-        <v>153</v>
       </c>
       <c r="M19" s="1">
         <v>10992</v>
@@ -1599,92 +1427,74 @@
       <c r="O19" s="1">
         <v>66</v>
       </c>
-      <c r="P19" s="1">
-        <v>10992</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>248</v>
-      </c>
-      <c r="R19" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>346.37299999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>742.54899999999998</v>
-      </c>
-      <c r="D20" s="2">
+        <v>743</v>
+      </c>
+      <c r="D20" s="1">
         <v>928</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>291</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>359</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>2948</v>
       </c>
       <c r="H20" s="1">
         <v>283</v>
       </c>
       <c r="I20" s="1">
-        <v>130.209</v>
+        <v>130</v>
       </c>
       <c r="J20" s="1">
-        <v>5525.6930000000002</v>
+        <v>5526</v>
       </c>
       <c r="K20" s="1">
-        <v>116.922</v>
+        <v>135</v>
       </c>
       <c r="L20" s="1">
-        <v>135.10900000000001</v>
+        <v>117</v>
       </c>
       <c r="M20" s="1">
-        <v>9959.2649999999994</v>
+        <v>9959</v>
       </c>
       <c r="N20" s="1">
-        <v>222.50200000000001</v>
+        <v>223</v>
       </c>
       <c r="O20" s="1">
-        <v>56.265000000000001</v>
-      </c>
-      <c r="P20" s="1">
-        <v>9959.2649999999994</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>222.50200000000001</v>
-      </c>
-      <c r="R20" s="1">
-        <v>56.265000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>261</v>
       </c>
       <c r="C21" s="1">
         <v>722</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>993</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>259</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>382</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>2699</v>
       </c>
       <c r="H21" s="1">
@@ -1697,10 +1507,10 @@
         <v>4926</v>
       </c>
       <c r="K21" s="1">
+        <v>143</v>
+      </c>
+      <c r="L21" s="1">
         <v>115</v>
-      </c>
-      <c r="L21" s="1">
-        <v>143</v>
       </c>
       <c r="M21" s="1">
         <v>9353</v>
@@ -1711,36 +1521,27 @@
       <c r="O21" s="1">
         <v>36</v>
       </c>
-      <c r="P21" s="1">
-        <v>9353</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>184</v>
-      </c>
-      <c r="R21" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="3" t="s">
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>224</v>
       </c>
       <c r="C22" s="1">
         <v>731</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>1368</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>300</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>391</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>2947</v>
       </c>
       <c r="H22" s="1">
@@ -1753,10 +1554,10 @@
         <v>1884</v>
       </c>
       <c r="K22" s="1">
+        <v>292</v>
+      </c>
+      <c r="L22" s="1">
         <v>115</v>
-      </c>
-      <c r="L22" s="1">
-        <v>292</v>
       </c>
       <c r="M22" s="1">
         <v>9781</v>
@@ -1767,36 +1568,27 @@
       <c r="O22" s="1">
         <v>134</v>
       </c>
-      <c r="P22" s="1">
-        <v>9781</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>350</v>
-      </c>
-      <c r="R22" s="1">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>214</v>
       </c>
       <c r="C23" s="1">
         <v>855</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>1155</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>132</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>380</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>2370</v>
       </c>
       <c r="H23" s="1">
@@ -1809,10 +1601,10 @@
         <v>742</v>
       </c>
       <c r="K23" s="1">
+        <v>193</v>
+      </c>
+      <c r="L23" s="1">
         <v>73</v>
-      </c>
-      <c r="L23" s="1">
-        <v>193</v>
       </c>
       <c r="M23" s="1">
         <v>8400</v>
@@ -1823,39 +1615,30 @@
       <c r="O23" s="1">
         <v>85</v>
       </c>
-      <c r="P23" s="1">
-        <v>8400</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>202</v>
-      </c>
-      <c r="R23" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="3" t="s">
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>178</v>
       </c>
       <c r="C24" s="1">
         <v>797</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>1333</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>283</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>367</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>2710</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>208</v>
       </c>
       <c r="I24" s="1">
@@ -1865,10 +1648,10 @@
         <v>708</v>
       </c>
       <c r="K24" s="1">
+        <v>120</v>
+      </c>
+      <c r="L24" s="1">
         <v>66</v>
-      </c>
-      <c r="L24" s="1">
-        <v>120</v>
       </c>
       <c r="M24" s="1">
         <v>4794</v>
@@ -1877,15 +1660,6 @@
         <v>188</v>
       </c>
       <c r="O24" s="1">
-        <v>72</v>
-      </c>
-      <c r="P24" s="1">
-        <v>4794</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>188</v>
-      </c>
-      <c r="R24" s="1">
         <v>72</v>
       </c>
     </row>
@@ -1894,6 +1668,7 @@
     <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
